--- a/data/trans_orig/P1804_2016_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1804_2016_2023-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>30408</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20686</v>
+        <v>20748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43080</v>
+        <v>43069</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04506215218493213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03065509465444605</v>
+        <v>0.03074725398895602</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06384068626141388</v>
+        <v>0.06382553935478856</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -763,19 +763,19 @@
         <v>44330</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33118</v>
+        <v>33067</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58235</v>
+        <v>59285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06588455333379246</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04922137067126933</v>
+        <v>0.04914597137581517</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08655145469053441</v>
+        <v>0.08811190125285621</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -784,19 +784,19 @@
         <v>74738</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59537</v>
+        <v>59276</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92765</v>
+        <v>92300</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05545820301626308</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04417864275147682</v>
+        <v>0.04398535189807094</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06883550795966528</v>
+        <v>0.06849021753933085</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>644392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>631720</v>
+        <v>631731</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>654114</v>
+        <v>654052</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9549378478150679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9361593137385861</v>
+        <v>0.9361744606452107</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.969344905345554</v>
+        <v>0.9692527460110439</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>622</v>
@@ -834,19 +834,19 @@
         <v>628509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>614604</v>
+        <v>613554</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>639721</v>
+        <v>639772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9341154466662075</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9134485453094656</v>
+        <v>0.9118880987471438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9507786293287307</v>
+        <v>0.9508540286241848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1245</v>
@@ -855,19 +855,19 @@
         <v>1272901</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1254874</v>
+        <v>1255339</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1288102</v>
+        <v>1288363</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.944541796983737</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9311644920403347</v>
+        <v>0.9315097824606692</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.955821357248523</v>
+        <v>0.9560146481019289</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>58057</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43839</v>
+        <v>44163</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72997</v>
+        <v>73986</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05678307163072372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0428774308706845</v>
+        <v>0.04319369545747427</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07139547358066574</v>
+        <v>0.0723627773237064</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -980,19 +980,19 @@
         <v>90859</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74545</v>
+        <v>74530</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111647</v>
+        <v>113157</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.087120833245696</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07147737873828305</v>
+        <v>0.07146335101824162</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1070534354415215</v>
+        <v>0.1085012327655145</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>139</v>
@@ -1001,19 +1001,19 @@
         <v>148916</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>127250</v>
+        <v>126911</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173210</v>
+        <v>174668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0721023821835786</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0616120146711405</v>
+        <v>0.06144807704066253</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08386491534240116</v>
+        <v>0.08457067451561236</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>964374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>949434</v>
+        <v>948445</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>978592</v>
+        <v>978268</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9432169283692763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9286045264193343</v>
+        <v>0.9276372226762939</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9571225691293155</v>
+        <v>0.9568063045425258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>894</v>
@@ -1051,19 +1051,19 @@
         <v>952054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>931266</v>
+        <v>929756</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>968368</v>
+        <v>968383</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.912879166754304</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8929465645584787</v>
+        <v>0.8914987672344856</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9285226212617169</v>
+        <v>0.9285366489817584</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1789</v>
@@ -1072,19 +1072,19 @@
         <v>1916428</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1892134</v>
+        <v>1890676</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1938094</v>
+        <v>1938433</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9278976178164214</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9161350846575989</v>
+        <v>0.9154293254843877</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9383879853288596</v>
+        <v>0.9385519229593375</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>40088</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28830</v>
+        <v>29876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56784</v>
+        <v>56397</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05277863701213713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03795665619391552</v>
+        <v>0.0393334442241131</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07475998686534005</v>
+        <v>0.07425056622117886</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -1197,19 +1197,19 @@
         <v>90834</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73310</v>
+        <v>74092</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111811</v>
+        <v>110393</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1157102845826698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09338701766719401</v>
+        <v>0.09438381319316559</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1424318417417843</v>
+        <v>0.1406256416961789</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -1218,19 +1218,19 @@
         <v>130922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>110112</v>
+        <v>110531</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>155160</v>
+        <v>155171</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0847631037714253</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07129018070646836</v>
+        <v>0.07156103669476836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1004553277564784</v>
+        <v>0.1004627344442476</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>719464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>702768</v>
+        <v>703155</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>730722</v>
+        <v>729676</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9472213629878629</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9252400131346598</v>
+        <v>0.925749433778821</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9620433438060843</v>
+        <v>0.9606665557758868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>652</v>
@@ -1268,19 +1268,19 @@
         <v>694177</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>673200</v>
+        <v>674618</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>711701</v>
+        <v>710919</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8842897154173303</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8575681582582158</v>
+        <v>0.8593743583038211</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.906612982332806</v>
+        <v>0.9056161868068344</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1311</v>
@@ -1289,19 +1289,19 @@
         <v>1413641</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1389403</v>
+        <v>1389392</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1434451</v>
+        <v>1434032</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9152368962285747</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8995446722435215</v>
+        <v>0.8995372655557523</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9287098192935315</v>
+        <v>0.9284389633052313</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>85137</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69543</v>
+        <v>67291</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103389</v>
+        <v>103795</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09080596151226596</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07417360165197349</v>
+        <v>0.07177151827579564</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.110273823423896</v>
+        <v>0.1107070275317263</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>106</v>
@@ -1414,19 +1414,19 @@
         <v>125886</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105708</v>
+        <v>105099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>150265</v>
+        <v>151252</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1206062985623366</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1012740909740946</v>
+        <v>0.1006909662669609</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1439625981978733</v>
+        <v>0.1449084945091398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -1435,19 +1435,19 @@
         <v>211023</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>182567</v>
+        <v>185206</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>239620</v>
+        <v>245330</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1065048683151157</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09214315184130598</v>
+        <v>0.0934750452747439</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1209379435124748</v>
+        <v>0.1238198192966338</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>852430</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>834178</v>
+        <v>833772</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>868024</v>
+        <v>870276</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9091940384877341</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8897261765761041</v>
+        <v>0.8892929724682739</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9258263983480267</v>
+        <v>0.9282284817242044</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>853</v>
@@ -1485,19 +1485,19 @@
         <v>917893</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>893514</v>
+        <v>892527</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>938071</v>
+        <v>938680</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8793937014376635</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8560374018021265</v>
+        <v>0.8550915054908601</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8987259090259053</v>
+        <v>0.8993090337330391</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1700</v>
@@ -1506,19 +1506,19 @@
         <v>1770323</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1741726</v>
+        <v>1736016</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1798779</v>
+        <v>1796140</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8934951316848843</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8790620564875251</v>
+        <v>0.8761801807033662</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9078568481586939</v>
+        <v>0.9065249547252561</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>213690</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>186623</v>
+        <v>184708</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>245386</v>
+        <v>241416</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06295446880426407</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05498043968550995</v>
+        <v>0.05441634966269449</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0722923529680108</v>
+        <v>0.07112300757287141</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>317</v>
@@ -1631,19 +1631,19 @@
         <v>351909</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>314451</v>
+        <v>316900</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>389910</v>
+        <v>390419</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09928202700589622</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08871404516768384</v>
+        <v>0.08940515567537885</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1100030629552872</v>
+        <v>0.1101466697517541</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>524</v>
@@ -1652,19 +1652,19 @@
         <v>565599</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>515723</v>
+        <v>520609</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>611686</v>
+        <v>616598</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08151140115277844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0743235330691428</v>
+        <v>0.07502769803624165</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08815327363210426</v>
+        <v>0.08886110363964948</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3180660</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3148964</v>
+        <v>3152934</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3207727</v>
+        <v>3209642</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.937045531195736</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9277076470319889</v>
+        <v>0.9288769924271285</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9450195603144901</v>
+        <v>0.9455836503373054</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3021</v>
@@ -1702,19 +1702,19 @@
         <v>3192633</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3154632</v>
+        <v>3154123</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3230091</v>
+        <v>3227642</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9007179729941037</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8899969370447128</v>
+        <v>0.8898533302482462</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9112859548323168</v>
+        <v>0.9105948443246213</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6045</v>
@@ -1723,19 +1723,19 @@
         <v>6373293</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6327206</v>
+        <v>6322294</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6423169</v>
+        <v>6418283</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9184885988472216</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9118467263678957</v>
+        <v>0.9111388963603505</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.925676466930857</v>
+        <v>0.9249723019637583</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>24653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15461</v>
+        <v>14581</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41416</v>
+        <v>42457</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03569176810502731</v>
+        <v>0.03569176810502732</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02238381271208081</v>
+        <v>0.02111064012817021</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05996088274627871</v>
+        <v>0.06146850983570597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -2088,19 +2088,19 @@
         <v>47633</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36179</v>
+        <v>36194</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62904</v>
+        <v>63174</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06502113935470985</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04938644352035818</v>
+        <v>0.0494060275808944</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08586709414033884</v>
+        <v>0.08623539839038322</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -2109,19 +2109,19 @@
         <v>72285</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56953</v>
+        <v>56394</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93376</v>
+        <v>97817</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05078780261367888</v>
+        <v>0.0507878026136789</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04001502500521611</v>
+        <v>0.03962229932737976</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06560634135560617</v>
+        <v>0.0687264768383385</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>666057</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>649294</v>
+        <v>648253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>675249</v>
+        <v>676129</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9643082318949728</v>
+        <v>0.9643082318949726</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9400391172537212</v>
+        <v>0.9385314901642928</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9776161872879191</v>
+        <v>0.9788893598718297</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1173</v>
@@ -2159,19 +2159,19 @@
         <v>684941</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>669670</v>
+        <v>669400</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>696395</v>
+        <v>696380</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9349788606452903</v>
+        <v>0.9349788606452902</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9141329058596602</v>
+        <v>0.9137646016096164</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9506135564796416</v>
+        <v>0.9505939724191053</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1881</v>
@@ -2180,19 +2180,19 @@
         <v>1350999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1329908</v>
+        <v>1325467</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1366331</v>
+        <v>1366890</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.949212197386321</v>
+        <v>0.9492121973863212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9343936586443938</v>
+        <v>0.9312735231616618</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9599849749947839</v>
+        <v>0.9603777006726203</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>88990</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66968</v>
+        <v>67367</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112208</v>
+        <v>112556</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08483953677473936</v>
+        <v>0.08483953677473935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0638445219722521</v>
+        <v>0.06422561843780616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1069750208302988</v>
+        <v>0.1073070261426086</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>123</v>
@@ -2305,19 +2305,19 @@
         <v>95341</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78687</v>
+        <v>79839</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115109</v>
+        <v>113894</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08903385518958483</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07348198028134313</v>
+        <v>0.07455773604037924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1074943671579498</v>
+        <v>0.1063597569898393</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>189</v>
@@ -2326,19 +2326,19 @@
         <v>184330</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158499</v>
+        <v>156648</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>215019</v>
+        <v>214985</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08695838319995877</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07477212744099207</v>
+        <v>0.07389903143226664</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1014358794671651</v>
+        <v>0.1014195929360744</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>959927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>936709</v>
+        <v>936361</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>981949</v>
+        <v>981550</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9151604632252607</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8930249791697009</v>
+        <v>0.8926929738573915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9361554780277479</v>
+        <v>0.9357743815621939</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1393</v>
@@ -2376,19 +2376,19 @@
         <v>975497</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>955729</v>
+        <v>956944</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>992151</v>
+        <v>990999</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9109661448104153</v>
+        <v>0.9109661448104154</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8925056328420501</v>
+        <v>0.8936402430101604</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9265180197186568</v>
+        <v>0.9254422639596206</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2291</v>
@@ -2397,19 +2397,19 @@
         <v>1935425</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1904736</v>
+        <v>1904770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1961256</v>
+        <v>1963107</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9130416168000411</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.898564120532835</v>
+        <v>0.8985804070639261</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.925227872559008</v>
+        <v>0.9261009685677335</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>24395</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16130</v>
+        <v>16216</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36257</v>
+        <v>36775</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03037725779379987</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02008477345836079</v>
+        <v>0.02019303424332843</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04514822314793793</v>
+        <v>0.04579305079648995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -2522,19 +2522,19 @@
         <v>49532</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38479</v>
+        <v>38893</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64369</v>
+        <v>63559</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06144536636151365</v>
+        <v>0.06144536636151364</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04773401248471394</v>
+        <v>0.04824699268035432</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0798502965372187</v>
+        <v>0.07884606252695221</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -2543,19 +2543,19 @@
         <v>73927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59412</v>
+        <v>59219</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91495</v>
+        <v>91301</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04594072317411384</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03692009836353221</v>
+        <v>0.03680070831265837</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05685789595831178</v>
+        <v>0.05673695201667805</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>778678</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>766816</v>
+        <v>766298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>786943</v>
+        <v>786857</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9696227422062001</v>
+        <v>0.9696227422062</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9548517768520622</v>
+        <v>0.9542069492035105</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9799152265416394</v>
+        <v>0.9798069657566716</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>979</v>
@@ -2593,19 +2593,19 @@
         <v>756588</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>741751</v>
+        <v>742561</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>767641</v>
+        <v>767227</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9385546336384863</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9201497034627811</v>
+        <v>0.9211539374730477</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.952265987515286</v>
+        <v>0.9517530073196457</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1628</v>
@@ -2614,19 +2614,19 @@
         <v>1535266</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1517698</v>
+        <v>1517892</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1549781</v>
+        <v>1549974</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.954059276825886</v>
+        <v>0.9540592768258861</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9431421040416881</v>
+        <v>0.9432630479833221</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9630799016364673</v>
+        <v>0.9631992916873416</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>80530</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62996</v>
+        <v>64612</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99292</v>
+        <v>100391</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08133796253634229</v>
+        <v>0.0813379625363423</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06362836837049904</v>
+        <v>0.06526086093813477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.100289098820068</v>
+        <v>0.1013982959653591</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>187</v>
@@ -2739,19 +2739,19 @@
         <v>125327</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106546</v>
+        <v>108481</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144943</v>
+        <v>142873</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1120633287776607</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0952701618922477</v>
+        <v>0.09700045880731165</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1296032795769999</v>
+        <v>0.127752733048346</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>280</v>
@@ -2760,19 +2760,19 @@
         <v>205856</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>180754</v>
+        <v>180993</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>232984</v>
+        <v>231921</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0976354430851209</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0857298077202563</v>
+        <v>0.08584281051205678</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1105016002597204</v>
+        <v>0.1099974949193876</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>909532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>890770</v>
+        <v>889671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>927066</v>
+        <v>925450</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9186620374636576</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8997109011799321</v>
+        <v>0.8986017040346411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9363716316295011</v>
+        <v>0.9347391390618657</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1374</v>
@@ -2810,19 +2810,19 @@
         <v>993030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>973414</v>
+        <v>975484</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1011811</v>
+        <v>1009876</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8879366712223393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8703967204230004</v>
+        <v>0.872247266951654</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9047298381077524</v>
+        <v>0.9029995411926887</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2287</v>
@@ -2831,19 +2831,19 @@
         <v>1902563</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1875435</v>
+        <v>1876498</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1927665</v>
+        <v>1927426</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9023645569148793</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8894983997402797</v>
+        <v>0.8900025050806122</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9142701922797434</v>
+        <v>0.9141571894879428</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>218567</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>189370</v>
+        <v>187094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>258795</v>
+        <v>253520</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.061868615888674</v>
+        <v>0.06186861588867398</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05360401741350358</v>
+        <v>0.05295980355964005</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07325562295129187</v>
+        <v>0.07176252333667803</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>439</v>
@@ -2956,19 +2956,19 @@
         <v>317833</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>284731</v>
+        <v>289086</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>348659</v>
+        <v>351778</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08525810957350392</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07637869879145576</v>
+        <v>0.07754675012758683</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09352711328986898</v>
+        <v>0.09436385428623817</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>647</v>
@@ -2977,19 +2977,19 @@
         <v>536400</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>493192</v>
+        <v>490724</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>585311</v>
+        <v>584268</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07387765353324641</v>
+        <v>0.07387765353324639</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06792674201742223</v>
+        <v>0.0675868384995318</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08061414841294033</v>
+        <v>0.08047040195165273</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3314195</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3273967</v>
+        <v>3279242</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3343392</v>
+        <v>3345668</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9381313841113261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.926744377048708</v>
+        <v>0.9282374766633222</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9463959825864963</v>
+        <v>0.94704019644036</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4919</v>
@@ -3027,19 +3027,19 @@
         <v>3410056</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3379230</v>
+        <v>3376111</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3443158</v>
+        <v>3438803</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.914741890426496</v>
+        <v>0.9147418904264961</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9064728867101308</v>
+        <v>0.9056361457137617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9236213012085441</v>
+        <v>0.9224532498724132</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8087</v>
@@ -3048,19 +3048,19 @@
         <v>6724251</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6675340</v>
+        <v>6676383</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6767459</v>
+        <v>6769927</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9261223464667537</v>
+        <v>0.9261223464667536</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9193858515870593</v>
+        <v>0.9195295980483472</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9320732579825775</v>
+        <v>0.932413161500468</v>
       </c>
     </row>
     <row r="18">
